--- a/public/xls/export_users.xlsx
+++ b/public/xls/export_users.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>Name</t>
   </si>
@@ -69,52 +69,46 @@
     <t>Airport</t>
   </si>
   <si>
-    <t>Einstein</t>
-  </si>
-  <si>
-    <t>Albert</t>
-  </si>
-  <si>
-    <t>Université de Genève</t>
-  </si>
-  <si>
-    <t>einstein@gmail.com</t>
-  </si>
-  <si>
-    <t>24 rue du Général-Dufour</t>
-  </si>
-  <si>
-    <t>Zurich</t>
-  </si>
-  <si>
-    <t>CH</t>
-  </si>
-  <si>
-    <t>0707070707</t>
-  </si>
-  <si>
-    <t>Jean</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Paris School of Business</t>
-  </si>
-  <si>
-    <t>jdata@gmail.com</t>
-  </si>
-  <si>
-    <t>59 rue Nationale</t>
-  </si>
-  <si>
-    <t>Paris</t>
+    <t>Rerz</t>
+  </si>
+  <si>
+    <t>Rere</t>
+  </si>
+  <si>
+    <t>titi</t>
+  </si>
+  <si>
+    <t>gestionnaire@grahikchannel.com</t>
+  </si>
+  <si>
+    <t>626 Av. du Colonel Fabien</t>
+  </si>
+  <si>
+    <t>Dammarie-les-Lys</t>
   </si>
   <si>
     <t>FR</t>
   </si>
   <si>
-    <t>0708090504</t>
+    <t>0613883382</t>
+  </si>
+  <si>
+    <t>Sefsef</t>
+  </si>
+  <si>
+    <t>Toto</t>
+  </si>
+  <si>
+    <t>quentin.jeannet@gmail.com</t>
+  </si>
+  <si>
+    <t>fesfef</t>
+  </si>
+  <si>
+    <t>fesf</t>
+  </si>
+  <si>
+    <t>BD</t>
   </si>
 </sst>
 </file>
@@ -458,12 +452,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="5" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="24" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="22" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="29" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="8" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="36" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="30" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="19" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="9" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="15" bestFit="true" customWidth="true" style="0"/>
@@ -550,7 +544,7 @@
         <v>22</v>
       </c>
       <c r="G2">
-        <v>1211</v>
+        <v>77190</v>
       </c>
       <c r="H2" t="s">
         <v>23</v>
@@ -649,39 +643,36 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2">
+        <v>95500</v>
+      </c>
+      <c r="H2" t="s">
         <v>30</v>
       </c>
-      <c r="G2">
-        <v>75013</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
       </c>
-      <c r="M2" t="b">
+      <c r="K2" t="b">
         <v>1</v>
       </c>
-      <c r="N2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O2" t="b">
+      <c r="L2" t="b">
         <v>1</v>
       </c>
     </row>

--- a/public/xls/export_users.xlsx
+++ b/public/xls/export_users.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Need flight</t>
   </si>
   <si>
-    <t>Need hostel</t>
-  </si>
-  <si>
     <t>Train station</t>
   </si>
   <si>
@@ -93,10 +90,19 @@
     <t>0613883382</t>
   </si>
   <si>
+    <t>Toto</t>
+  </si>
+  <si>
+    <t>toto</t>
+  </si>
+  <si>
+    <t>toto@gmail.com</t>
+  </si>
+  <si>
+    <t>0102030405</t>
+  </si>
+  <si>
     <t>Sefsef</t>
-  </si>
-  <si>
-    <t>Toto</t>
   </si>
   <si>
     <t>quentin.jeannet@gmail.com</t>
@@ -444,7 +450,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,12 +472,11 @@
     <col min="12" max="12" width="10" bestFit="true" customWidth="true" style="0"/>
     <col min="13" max="13" width="12" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="9" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -520,40 +525,81 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
       </c>
       <c r="G2">
         <v>77190</v>
       </c>
       <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
         <v>23</v>
-      </c>
-      <c r="I2" t="s">
-        <v>24</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>73322</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -577,7 +623,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -585,7 +631,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -634,37 +680,34 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G2">
         <v>95500</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
